--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002A56E-ED5F-495F-9A5D-CB060AF177EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F141AD-AC32-42B9-B1CF-CF23DC99A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -393,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +415,7 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -423,8 +434,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>MOD((A2-1)*5+(B2-1)*5,30)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2">
+        <f>MOD((E2-1)*5+(F2-1)*5,30)</f>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -432,8 +461,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D37" si="0">MOD((A3-1)*5+(B3-1)*5,30)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3">
+        <f>MOD((E3-1)*5+(F3-1)*5,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -441,8 +488,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4">
+        <f>MOD((E4-1)*5+(F4-1)*5,30)</f>
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -450,8 +515,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <f>MOD((E5-1)*5+(F5-1)*5,30)</f>
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -459,8 +542,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6">
+        <f>MOD((E6-1)*5+(F6-1)*5,30)</f>
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -468,8 +569,26 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7">
+        <f>MOD((E7-1)*5+(F7-1)*5,30)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -477,8 +596,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8">
+        <f>MOD((E8-1)*5+(F8-1)*5,30)</f>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -486,8 +623,26 @@
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <f>MOD((E9-1)*5+(F9-1)*5,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -495,8 +650,26 @@
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10">
+        <f>MOD((E10-1)*5+(F10-1)*5,30)</f>
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -504,8 +677,26 @@
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11">
+        <f>MOD((E11-1)*5+(F11-1)*5,30)</f>
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -513,8 +704,26 @@
         <v>1</v>
       </c>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12">
+        <f>MOD((E12-1)*5+(F12-1)*5,30)</f>
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -522,8 +731,26 @@
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13">
+        <f>MOD((E13-1)*5+(F13-1)*5,30)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -531,8 +758,26 @@
         <v>2</v>
       </c>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14">
+        <f>MOD((E14-1)*5+(F14-1)*5,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -540,8 +785,26 @@
         <v>2</v>
       </c>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15">
+        <f>MOD((E15-1)*5+(F15-1)*5,30)</f>
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -549,8 +812,26 @@
         <v>2</v>
       </c>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16">
+        <f>MOD((E16-1)*5+(F16-1)*5,30)</f>
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -558,8 +839,26 @@
         <v>2</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17">
+        <f>MOD((E17-1)*5+(F17-1)*5,30)</f>
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -567,8 +866,26 @@
         <v>2</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18">
+        <f>MOD((E18-1)*5+(F18-1)*5,30)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -576,8 +893,26 @@
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19">
+        <f>MOD((E19-1)*5+(F19-1)*5,30)</f>
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -585,8 +920,26 @@
         <v>2</v>
       </c>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20">
+        <f>MOD((E20-1)*5+(F20-1)*5,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -594,8 +947,26 @@
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21">
+        <f>MOD((E21-1)*5+(F21-1)*5,30)</f>
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -603,8 +974,26 @@
         <v>2</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22">
+        <f>MOD((E22-1)*5+(F22-1)*5,30)</f>
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -612,8 +1001,26 @@
         <v>2</v>
       </c>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23">
+        <f>MOD((E23-1)*5+(F23-1)*5,30)</f>
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -621,8 +1028,26 @@
         <v>2</v>
       </c>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E24" s="2">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24">
+        <f>MOD((E24-1)*5+(F24-1)*5,30)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -630,8 +1055,26 @@
         <v>2</v>
       </c>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25">
+        <f>MOD((E25-1)*5+(F25-1)*5,30)</f>
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -639,8 +1082,26 @@
         <v>3</v>
       </c>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26">
+        <f>MOD((E26-1)*5+(F26-1)*5,30)</f>
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -648,8 +1109,26 @@
         <v>3</v>
       </c>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27">
+        <f>MOD((E27-1)*5+(F27-1)*5,30)</f>
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -657,8 +1136,26 @@
         <v>3</v>
       </c>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28">
+        <f>MOD((E28-1)*5+(F28-1)*5,30)</f>
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -666,8 +1163,26 @@
         <v>3</v>
       </c>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29">
+        <f>MOD((E29-1)*5+(F29-1)*5,30)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -675,8 +1190,26 @@
         <v>3</v>
       </c>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30">
+        <f>MOD((E30-1)*5+(F30-1)*5,30)</f>
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -684,8 +1217,26 @@
         <v>3</v>
       </c>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31">
+        <f t="shared" ref="H31:H37" si="1">MOD((E31-1)*5+(F31-1)*5,30)</f>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -693,8 +1244,26 @@
         <v>3</v>
       </c>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -702,8 +1271,26 @@
         <v>3</v>
       </c>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E33" s="1">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -711,8 +1298,26 @@
         <v>3</v>
       </c>
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -720,8 +1325,26 @@
         <v>3</v>
       </c>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E35" s="1">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -729,8 +1352,26 @@
         <v>3</v>
       </c>
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -738,6 +1379,24 @@
         <v>3</v>
       </c>
       <c r="C37" s="1"/>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3822D3-0470-452B-A27A-AAA63F99BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BCE234-AC9D-4591-8994-7D72FCAAE9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Participant No.</t>
   </si>
   <si>
-    <t>User Index</t>
-  </si>
-  <si>
     <t>1st Condition</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Stage Index</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,8 +456,8 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -536,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -584,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -632,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -648,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>

--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA Demo\Desktop\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BCE234-AC9D-4591-8994-7D72FCAAE9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D002C-BE0A-494E-B624-AB9A5A97432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Participant No.</t>
   </si>
@@ -53,20 +53,50 @@
     <t>2 - 'slow motion'</t>
   </si>
   <si>
-    <t>Completion</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Stage Index</t>
+  </si>
+  <si>
+    <t>Fatigue Report Initial</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 1 In</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 1 Out</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 2 In</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 2 Out</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 3 In</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 3 Out</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 4 In</t>
+  </si>
+  <si>
+    <t>Fatigue Report Break 4 Out</t>
+  </si>
+  <si>
+    <t>Fatigue Report Final</t>
+  </si>
+  <si>
+    <t>weiqiao.han@monash.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +129,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,11 +185,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,8 +202,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -444,43 +487,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -493,10 +612,71 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2</v>
+      </c>
+      <c r="W2" s="3">
+        <v>3</v>
+      </c>
+      <c r="X2" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -510,9 +690,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -526,9 +715,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -542,9 +740,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -558,9 +765,18 @@
         <v>4</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -574,9 +790,18 @@
         <v>4</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -590,9 +815,18 @@
         <v>3</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -606,9 +840,18 @@
         <v>3</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -622,9 +865,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -638,9 +890,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -654,9 +915,18 @@
         <v>3</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -670,9 +940,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -685,10 +964,8 @@
       <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -701,10 +978,8 @@
       <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -717,10 +992,8 @@
       <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -733,10 +1006,8 @@
       <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -749,10 +1020,8 @@
       <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -765,10 +1034,8 @@
       <c r="D19" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -781,10 +1048,8 @@
       <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -797,10 +1062,8 @@
       <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -813,10 +1076,8 @@
       <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -829,10 +1090,8 @@
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -845,10 +1104,8 @@
       <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -861,10 +1118,8 @@
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -878,9 +1133,18 @@
         <v>4</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -894,9 +1158,18 @@
         <v>4</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -910,9 +1183,18 @@
         <v>4</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -926,9 +1208,18 @@
         <v>4</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -942,9 +1233,18 @@
         <v>4</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -958,9 +1258,18 @@
         <v>4</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -974,9 +1283,18 @@
         <v>3</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -990,9 +1308,18 @@
         <v>3</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1006,9 +1333,18 @@
         <v>3</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1022,9 +1358,18 @@
         <v>3</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1038,9 +1383,18 @@
         <v>3</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1054,11 +1408,23 @@
         <v>3</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B5BE67FF-9A9E-4BEB-A23F-279B655C409B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA Demo\Desktop\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D002C-BE0A-494E-B624-AB9A5A97432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA6D821-D13D-4B05-A7F6-BBBC148AA5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Participant No.</t>
   </si>
@@ -86,10 +86,13 @@
     <t>Fatigue Report Break 4 Out</t>
   </si>
   <si>
-    <t>Fatigue Report Final</t>
-  </si>
-  <si>
     <t>weiqiao.han@monash.edu</t>
+  </si>
+  <si>
+    <t>Fatigue Report Final 1</t>
+  </si>
+  <si>
+    <t>Fatigue Report Final 2</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +214,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -487,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -509,20 +525,20 @@
     <col min="12" max="12" width="28.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,55 +582,61 @@
         <v>15</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
@@ -646,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="P2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="3">
         <v>1</v>
@@ -655,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="3">
         <v>2</v>
@@ -667,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="W2" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" s="3">
         <v>3</v>
@@ -675,33 +697,95 @@
       <c r="Y2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7">
+        <v>4</v>
+      </c>
+      <c r="P3" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7">
+        <v>1</v>
+      </c>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -715,7 +799,6 @@
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -725,8 +808,10 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -740,7 +825,6 @@
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -750,8 +834,10 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -765,7 +851,6 @@
         <v>4</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -775,8 +860,10 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -790,7 +877,6 @@
         <v>4</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -800,8 +886,10 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -815,7 +903,6 @@
         <v>3</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -825,8 +912,10 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -840,7 +929,6 @@
         <v>3</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -850,8 +938,10 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -865,7 +955,6 @@
         <v>3</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -875,8 +964,10 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -890,7 +981,6 @@
         <v>3</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -900,8 +990,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -915,7 +1007,6 @@
         <v>3</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -925,8 +1016,10 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -940,7 +1033,6 @@
         <v>3</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -950,8 +1042,10 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -965,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -979,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -993,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1007,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1021,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1035,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1049,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1063,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1077,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1091,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1105,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1119,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1133,7 +1227,6 @@
         <v>4</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -1143,8 +1236,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1158,7 +1253,6 @@
         <v>4</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -1168,8 +1262,10 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1183,7 +1279,6 @@
         <v>4</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -1193,8 +1288,10 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1208,7 +1305,6 @@
         <v>4</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -1218,8 +1314,10 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1233,7 +1331,6 @@
         <v>4</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -1243,8 +1340,10 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1258,7 +1357,6 @@
         <v>4</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -1268,8 +1366,10 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1283,7 +1383,6 @@
         <v>3</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -1293,8 +1392,10 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1308,7 +1409,6 @@
         <v>3</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -1318,8 +1418,10 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1333,7 +1435,6 @@
         <v>3</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -1343,8 +1444,10 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1358,7 +1461,6 @@
         <v>3</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -1368,8 +1470,10 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1383,7 +1487,6 @@
         <v>3</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -1393,8 +1496,10 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1408,7 +1513,6 @@
         <v>3</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -1418,6 +1522,8 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA Demo\Desktop\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC3AECB-61EF-4FB2-99DC-786A0DDFDC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E89276-5695-4077-A5D2-86CE087F9BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>Participant No.</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>hzha0195@student.monash.edu</t>
+  </si>
+  <si>
+    <t>jhee0014@student.monash.edu</t>
+  </si>
+  <si>
+    <t>siyi.liu@monash.edu</t>
+  </si>
+  <si>
+    <t>lcat0012@student.monash.edu</t>
+  </si>
+  <si>
+    <t>yxyyxy417@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -238,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,6 +350,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -616,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2954,6 +2982,48 @@
       <c r="C45" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2">
+        <v>120</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -2965,6 +3035,48 @@
       <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2">
+        <v>120</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>2</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>3</v>
+      </c>
+      <c r="P46" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -2976,6 +3088,48 @@
       <c r="C47" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="2">
+        <v>150</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2</v>
+      </c>
+      <c r="M47" s="2">
+        <v>3</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3</v>
+      </c>
+      <c r="O47" s="2">
+        <v>4</v>
+      </c>
+      <c r="P47" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -2987,8 +3141,50 @@
       <c r="C48" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2">
+        <v>200</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>4</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3</v>
+      </c>
+      <c r="K48" s="2">
+        <v>4</v>
+      </c>
+      <c r="L48" s="2">
+        <v>3</v>
+      </c>
+      <c r="M48" s="2">
+        <v>4</v>
+      </c>
+      <c r="N48" s="2">
+        <v>4</v>
+      </c>
+      <c r="O48" s="2">
+        <v>4</v>
+      </c>
+      <c r="P48" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>24</v>
       </c>
@@ -2998,8 +3194,50 @@
       <c r="C49" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="2">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>2</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2">
+        <v>2</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>24</v>
       </c>
@@ -3009,8 +3247,50 @@
       <c r="C50" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="2">
+        <v>150</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2">
+        <v>4</v>
+      </c>
+      <c r="K50" s="2">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2">
+        <v>4</v>
+      </c>
+      <c r="M50" s="2">
+        <v>4</v>
+      </c>
+      <c r="N50" s="2">
+        <v>4</v>
+      </c>
+      <c r="O50" s="2">
+        <v>5</v>
+      </c>
+      <c r="P50" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -3056,8 +3336,11 @@
       <c r="P51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>25</v>
       </c>
@@ -3103,8 +3386,11 @@
       <c r="P52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>26</v>
       </c>
@@ -3117,7 +3403,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26</v>
       </c>
@@ -3130,7 +3416,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>27</v>
       </c>
@@ -3143,7 +3429,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>27</v>
       </c>
@@ -3156,7 +3442,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>28</v>
       </c>
@@ -3169,7 +3455,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>28</v>
       </c>
@@ -3182,7 +3468,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>29</v>
       </c>
@@ -3195,7 +3481,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>29</v>
       </c>
@@ -3208,7 +3494,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>30</v>
       </c>
@@ -3221,7 +3507,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>30</v>
       </c>
@@ -3234,7 +3520,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>31</v>
       </c>
@@ -3244,21 +3530,101 @@
       <c r="C63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="D63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="3">
+        <v>60</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2</v>
+      </c>
+      <c r="K63" s="3">
+        <v>3</v>
+      </c>
+      <c r="L63" s="3">
+        <v>3</v>
+      </c>
+      <c r="M63" s="3">
+        <v>4</v>
+      </c>
+      <c r="N63" s="3">
+        <v>4</v>
+      </c>
+      <c r="O63" s="3">
+        <v>4</v>
+      </c>
+      <c r="P63" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <v>31</v>
       </c>
-      <c r="B64" s="1">
-        <v>3</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="13">
+        <v>3</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="D64" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="15">
+        <v>150</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15">
+        <v>2</v>
+      </c>
+      <c r="H64" s="15">
+        <v>2</v>
+      </c>
+      <c r="I64" s="15">
+        <v>3</v>
+      </c>
+      <c r="J64" s="15">
+        <v>3</v>
+      </c>
+      <c r="K64" s="15">
+        <v>3</v>
+      </c>
+      <c r="L64" s="15">
+        <v>3</v>
+      </c>
+      <c r="M64" s="15">
+        <v>3</v>
+      </c>
+      <c r="N64" s="15">
+        <v>3</v>
+      </c>
+      <c r="O64" s="15">
+        <v>4</v>
+      </c>
+      <c r="P64" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -3524,8 +3890,16 @@
     <hyperlink ref="D42" r:id="rId43" xr:uid="{7E53D88A-4827-4C12-9927-800A385E47D0}"/>
     <hyperlink ref="D43" r:id="rId44" xr:uid="{CDE6B55E-62F6-4669-B1B4-F71ACDFCD8BE}"/>
     <hyperlink ref="D44" r:id="rId45" xr:uid="{9C35CFE7-BA9B-4532-AE9D-823174B0AA84}"/>
+    <hyperlink ref="D45" r:id="rId46" xr:uid="{7618BF81-8492-46BD-9C53-1E5366C4C1B2}"/>
+    <hyperlink ref="D46" r:id="rId47" xr:uid="{D45CE957-D540-487D-A6F7-D4FE80241AF4}"/>
+    <hyperlink ref="D47" r:id="rId48" xr:uid="{5A5BF7E8-2E70-49EC-9206-10EA96CB7F7B}"/>
+    <hyperlink ref="D48" r:id="rId49" xr:uid="{BB4EDEFF-A9DF-4154-99CE-C47B6836A813}"/>
+    <hyperlink ref="D49" r:id="rId50" xr:uid="{CF695974-C5EC-4852-BB57-A5FDA768476E}"/>
+    <hyperlink ref="D50" r:id="rId51" xr:uid="{3E2D7A95-608F-418B-9C7B-6F1223DC43BC}"/>
+    <hyperlink ref="D63" r:id="rId52" xr:uid="{06001C6E-23DA-4DDF-8F01-5917BCBE0767}"/>
+    <hyperlink ref="D64" r:id="rId53" xr:uid="{4831C65C-C8F1-45D2-82D2-D32EC4700372}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA Demo\Desktop\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E89276-5695-4077-A5D2-86CE087F9BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E04A2-4C08-4B70-B742-B5152AF08D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="5910" windowWidth="21600" windowHeight="7725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="58">
   <si>
     <t>Participant No.</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>yxyyxy417@gmail.com</t>
+  </si>
+  <si>
+    <t>pboe0002@student.monash.edu</t>
+  </si>
+  <si>
+    <t>parisa.biniaz@monash.edu</t>
+  </si>
+  <si>
+    <t>ybai0041@student.monash.edu</t>
+  </si>
+  <si>
+    <t>muhaoning@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -250,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +289,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,16 +356,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -644,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" topLeftCell="G66" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1029,9 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E8" s="1">
+        <v>60</v>
+      </c>
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
@@ -1082,6 +1081,9 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>60</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -3303,6 +3305,9 @@
       <c r="D51" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E51" s="1">
+        <v>30</v>
+      </c>
       <c r="F51" s="1">
         <v>0.5</v>
       </c>
@@ -3353,6 +3358,9 @@
       <c r="D52" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E52" s="1">
+        <v>30</v>
+      </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>26</v>
       </c>
@@ -3400,10 +3408,50 @@
       <c r="C53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26</v>
       </c>
@@ -3413,10 +3461,50 @@
       <c r="C54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>27</v>
       </c>
@@ -3426,10 +3514,50 @@
       <c r="C55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>27</v>
       </c>
@@ -3439,10 +3567,50 @@
       <c r="C56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>3</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>3</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2</v>
+      </c>
+      <c r="O56" s="1">
+        <v>2</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>28</v>
       </c>
@@ -3452,10 +3620,50 @@
       <c r="C57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1">
+        <v>90</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>28</v>
       </c>
@@ -3465,10 +3673,50 @@
       <c r="C58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>29</v>
       </c>
@@ -3478,21 +3726,101 @@
       <c r="C59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="D59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>3</v>
+      </c>
+      <c r="N59" s="1">
+        <v>2</v>
+      </c>
+      <c r="O59" s="1">
+        <v>3</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>29</v>
       </c>
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="3">
+        <v>60</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -3520,109 +3848,109 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>31</v>
       </c>
-      <c r="B63" s="1">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="7">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="7">
         <v>60</v>
       </c>
-      <c r="F63" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="3">
-        <v>2</v>
-      </c>
-      <c r="J63" s="3">
-        <v>2</v>
-      </c>
-      <c r="K63" s="3">
-        <v>3</v>
-      </c>
-      <c r="L63" s="3">
-        <v>3</v>
-      </c>
-      <c r="M63" s="3">
-        <v>4</v>
-      </c>
-      <c r="N63" s="3">
-        <v>4</v>
-      </c>
-      <c r="O63" s="3">
-        <v>4</v>
-      </c>
-      <c r="P63" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+      <c r="F63" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
+        <v>2</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63" s="7">
+        <v>3</v>
+      </c>
+      <c r="L63" s="7">
+        <v>3</v>
+      </c>
+      <c r="M63" s="7">
+        <v>4</v>
+      </c>
+      <c r="N63" s="7">
+        <v>4</v>
+      </c>
+      <c r="O63" s="7">
+        <v>4</v>
+      </c>
+      <c r="P63" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>31</v>
       </c>
-      <c r="B64" s="13">
-        <v>3</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="7">
         <v>150</v>
       </c>
-      <c r="F64" s="15">
-        <v>1</v>
-      </c>
-      <c r="G64" s="15">
-        <v>2</v>
-      </c>
-      <c r="H64" s="15">
-        <v>2</v>
-      </c>
-      <c r="I64" s="15">
-        <v>3</v>
-      </c>
-      <c r="J64" s="15">
-        <v>3</v>
-      </c>
-      <c r="K64" s="15">
-        <v>3</v>
-      </c>
-      <c r="L64" s="15">
-        <v>3</v>
-      </c>
-      <c r="M64" s="15">
-        <v>3</v>
-      </c>
-      <c r="N64" s="15">
-        <v>3</v>
-      </c>
-      <c r="O64" s="15">
-        <v>4</v>
-      </c>
-      <c r="P64" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q64" s="15">
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7">
+        <v>2</v>
+      </c>
+      <c r="H64" s="7">
+        <v>2</v>
+      </c>
+      <c r="I64" s="7">
+        <v>3</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3</v>
+      </c>
+      <c r="K64" s="7">
+        <v>3</v>
+      </c>
+      <c r="L64" s="7">
+        <v>3</v>
+      </c>
+      <c r="M64" s="7">
+        <v>3</v>
+      </c>
+      <c r="N64" s="7">
+        <v>3</v>
+      </c>
+      <c r="O64" s="7">
+        <v>4</v>
+      </c>
+      <c r="P64" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3898,8 +4226,16 @@
     <hyperlink ref="D50" r:id="rId51" xr:uid="{3E2D7A95-608F-418B-9C7B-6F1223DC43BC}"/>
     <hyperlink ref="D63" r:id="rId52" xr:uid="{06001C6E-23DA-4DDF-8F01-5917BCBE0767}"/>
     <hyperlink ref="D64" r:id="rId53" xr:uid="{4831C65C-C8F1-45D2-82D2-D32EC4700372}"/>
+    <hyperlink ref="D53" r:id="rId54" xr:uid="{207DA8A8-BF03-45A4-841E-F618D402D7D3}"/>
+    <hyperlink ref="D54" r:id="rId55" xr:uid="{39305271-A685-46E7-919A-72A584558EDA}"/>
+    <hyperlink ref="D55" r:id="rId56" xr:uid="{1B0E6FB9-D5F8-4629-86C4-341772733A09}"/>
+    <hyperlink ref="D56" r:id="rId57" xr:uid="{807D903D-1DE3-4700-BC92-1C1490CAA35D}"/>
+    <hyperlink ref="D57" r:id="rId58" xr:uid="{32D547A2-3085-4352-9F1F-C89E6C4DA388}"/>
+    <hyperlink ref="D58" r:id="rId59" xr:uid="{2BDC38D2-7E4A-4709-BBCA-5EF46A941642}"/>
+    <hyperlink ref="D59" r:id="rId60" xr:uid="{57B444A6-CD06-42BA-ADEF-E42D61DD5A7E}"/>
+    <hyperlink ref="D60" r:id="rId61" xr:uid="{DABC2984-75F9-44E6-9965-37AC0FC9A633}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA Demo\Desktop\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D252133-A9FA-4E9A-8AB6-6F262544EA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D3165-6742-41AA-B8FA-216863B94D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34425" yWindow="2265" windowWidth="21600" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="95">
   <si>
     <t>Participant No.</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>red indication make it eaiser, intuitive realistic</t>
+  </si>
+  <si>
+    <t>wcha0071@student.monash.edu</t>
+  </si>
+  <si>
+    <t>faster, more stable</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,7 +499,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -779,7 +784,7 @@
   <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1197,126 +1202,213 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="1:19" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>2</v>
-      </c>
-      <c r="I8" s="17">
-        <v>2</v>
-      </c>
-      <c r="J8" s="17">
-        <v>2</v>
-      </c>
-      <c r="K8" s="17">
-        <v>3</v>
-      </c>
-      <c r="L8" s="17">
-        <v>2</v>
-      </c>
-      <c r="M8" s="17">
-        <v>2</v>
-      </c>
-      <c r="N8" s="17">
-        <v>2</v>
-      </c>
-      <c r="O8" s="17">
-        <v>1</v>
-      </c>
-      <c r="P8" s="17">
-        <v>1</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="17">
-        <v>3</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>2</v>
-      </c>
-      <c r="J9" s="17">
-        <v>2</v>
-      </c>
-      <c r="K9" s="17">
-        <v>2</v>
-      </c>
-      <c r="L9" s="17">
-        <v>2</v>
-      </c>
-      <c r="M9" s="17">
-        <v>2</v>
-      </c>
-      <c r="N9" s="17">
-        <v>2</v>
-      </c>
-      <c r="O9" s="17">
-        <v>2</v>
-      </c>
-      <c r="P9" s="17">
-        <v>2</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="F9" s="12">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12">
+        <v>2</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2</v>
+      </c>
+      <c r="M9" s="12">
+        <v>2</v>
+      </c>
+      <c r="N9" s="12">
+        <v>2</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2</v>
+      </c>
+      <c r="P9" s="12">
+        <v>2</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="20">
+        <v>90</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5312,56 +5404,56 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
+    <row r="87" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>36</v>
       </c>
-      <c r="B87" s="11">
-        <v>3</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="1">
         <v>220</v>
       </c>
-      <c r="F87" s="20">
-        <v>1</v>
-      </c>
-      <c r="G87" s="20">
-        <v>3</v>
-      </c>
-      <c r="H87" s="20">
-        <v>4</v>
-      </c>
-      <c r="I87" s="20">
-        <v>4</v>
-      </c>
-      <c r="J87" s="20">
-        <v>3</v>
-      </c>
-      <c r="K87" s="20">
-        <v>3</v>
-      </c>
-      <c r="L87" s="20">
-        <v>3</v>
-      </c>
-      <c r="M87" s="20">
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4</v>
+      </c>
+      <c r="I87" s="1">
+        <v>4</v>
+      </c>
+      <c r="J87" s="1">
+        <v>3</v>
+      </c>
+      <c r="K87" s="1">
+        <v>3</v>
+      </c>
+      <c r="L87" s="1">
+        <v>3</v>
+      </c>
+      <c r="M87" s="1">
         <v>6</v>
       </c>
-      <c r="N87" s="20">
+      <c r="N87" s="1">
         <v>6</v>
       </c>
-      <c r="O87" s="20">
+      <c r="O87" s="1">
         <v>6</v>
       </c>
-      <c r="P87" s="20">
+      <c r="P87" s="1">
         <v>6</v>
       </c>
-      <c r="Q87" s="20">
+      <c r="Q87" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5558,8 +5650,10 @@
     <hyperlink ref="D85" r:id="rId76" xr:uid="{FB5AE01E-1896-4BDE-ABC9-2401AB202591}"/>
     <hyperlink ref="D86" r:id="rId77" xr:uid="{861CEBBF-3ED3-4D7F-B144-31254E2A5EB0}"/>
     <hyperlink ref="D87" r:id="rId78" xr:uid="{A5CEDA48-066F-42D7-9A5E-29086BBF6AF3}"/>
+    <hyperlink ref="D10" r:id="rId79" xr:uid="{ABFA6D8A-021C-4EF8-9AD2-D070724B549B}"/>
+    <hyperlink ref="D11" r:id="rId80" xr:uid="{B057E1C3-59A5-486F-A5A9-7E099DBDF2F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA Demo\Desktop\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D3165-6742-41AA-B8FA-216863B94D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3E39A7-8979-4D3C-833B-23E75E2C14C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34425" yWindow="2265" windowWidth="21600" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
   <si>
     <t>Participant No.</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>faster, more stable</t>
+  </si>
+  <si>
+    <t>yu12@student.unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>user experience: smoother C1 harder to grab</t>
+  </si>
+  <si>
+    <t>shawn_hoon@yahoo.com</t>
+  </si>
+  <si>
+    <t>feel more realistic</t>
   </si>
 </sst>
 </file>
@@ -445,7 +457,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,9 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1358,56 +1367,56 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="1">
         <v>90</v>
       </c>
-      <c r="F11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="20">
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2391,6 +2400,51 @@
       <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>4</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2402,6 +2456,48 @@
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1">
+        <v>90</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>4</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -4390,16 +4486,103 @@
       <c r="C67" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="D67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>4</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
         <v>28</v>
       </c>
-      <c r="B68" s="1">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="11">
+        <v>3</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>40</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="11">
+        <v>10</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="11">
+        <v>1</v>
+      </c>
+      <c r="L68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="O68" s="11">
+        <v>1</v>
+      </c>
+      <c r="P68" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5652,8 +5835,12 @@
     <hyperlink ref="D87" r:id="rId78" xr:uid="{A5CEDA48-066F-42D7-9A5E-29086BBF6AF3}"/>
     <hyperlink ref="D10" r:id="rId79" xr:uid="{ABFA6D8A-021C-4EF8-9AD2-D070724B549B}"/>
     <hyperlink ref="D11" r:id="rId80" xr:uid="{B057E1C3-59A5-486F-A5A9-7E099DBDF2F2}"/>
+    <hyperlink ref="D29" r:id="rId81" xr:uid="{C134A380-7816-4E6D-BD50-81539DA895C3}"/>
+    <hyperlink ref="D30" r:id="rId82" xr:uid="{024BE19B-C582-4A28-B46E-1A489C78D8AB}"/>
+    <hyperlink ref="D67" r:id="rId83" xr:uid="{45C3A300-30FB-4CB2-A593-C2C1F22EEA9D}"/>
+    <hyperlink ref="D68" r:id="rId84" xr:uid="{DDE6A27F-A389-4D1D-8839-2B54D968A5E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
--- a/Assets/RawData/Participants_Order.xlsx
+++ b/Assets/RawData/Participants_Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IA Demo\Desktop\Shaozhang\Magic-Hand-with-URP\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3E39A7-8979-4D3C-833B-23E75E2C14C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FEC716-4016-443B-A644-249EBCBA5CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="101">
   <si>
     <t>Participant No.</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>feel more realistic</t>
+  </si>
+  <si>
+    <t>dmil0008@student.monash.edu</t>
+  </si>
+  <si>
+    <t>easier - occlusion navigation</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,12 +427,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,9 +484,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,13 +498,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -792,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -991,111 +982,111 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2</v>
-      </c>
-      <c r="I4" s="14">
-        <v>2</v>
-      </c>
-      <c r="J4" s="14">
-        <v>2</v>
-      </c>
-      <c r="K4" s="14">
-        <v>3</v>
-      </c>
-      <c r="L4" s="14">
-        <v>3</v>
-      </c>
-      <c r="M4" s="14">
-        <v>3</v>
-      </c>
-      <c r="N4" s="14">
-        <v>3</v>
-      </c>
-      <c r="O4" s="14">
-        <v>3</v>
-      </c>
-      <c r="P4" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>2</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13">
+        <v>3</v>
+      </c>
+      <c r="L4" s="13">
+        <v>3</v>
+      </c>
+      <c r="M4" s="13">
+        <v>3</v>
+      </c>
+      <c r="N4" s="13">
+        <v>3</v>
+      </c>
+      <c r="O4" s="13">
+        <v>3</v>
+      </c>
+      <c r="P4" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>2</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14">
-        <v>2</v>
-      </c>
-      <c r="K5" s="14">
-        <v>2</v>
-      </c>
-      <c r="L5" s="14">
-        <v>2</v>
-      </c>
-      <c r="M5" s="14">
-        <v>3</v>
-      </c>
-      <c r="N5" s="14">
-        <v>3</v>
-      </c>
-      <c r="O5" s="14">
-        <v>3</v>
-      </c>
-      <c r="P5" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>2</v>
-      </c>
-      <c r="S5" s="16" t="s">
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2</v>
+      </c>
+      <c r="L5" s="13">
+        <v>2</v>
+      </c>
+      <c r="M5" s="13">
+        <v>3</v>
+      </c>
+      <c r="N5" s="13">
+        <v>3</v>
+      </c>
+      <c r="O5" s="13">
+        <v>3</v>
+      </c>
+      <c r="P5" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>2</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1211,103 +1202,103 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2</v>
-      </c>
-      <c r="J8" s="12">
-        <v>2</v>
-      </c>
-      <c r="K8" s="12">
-        <v>3</v>
-      </c>
-      <c r="L8" s="12">
-        <v>2</v>
-      </c>
-      <c r="M8" s="12">
-        <v>2</v>
-      </c>
-      <c r="N8" s="12">
-        <v>2</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1</v>
-      </c>
-      <c r="P8" s="12">
-        <v>1</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11">
+        <v>2</v>
+      </c>
+      <c r="O8" s="11">
+        <v>1</v>
+      </c>
+      <c r="P8" s="11">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="12">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12">
-        <v>2</v>
-      </c>
-      <c r="I9" s="12">
-        <v>2</v>
-      </c>
-      <c r="J9" s="12">
-        <v>2</v>
-      </c>
-      <c r="K9" s="12">
-        <v>2</v>
-      </c>
-      <c r="L9" s="12">
-        <v>2</v>
-      </c>
-      <c r="M9" s="12">
-        <v>2</v>
-      </c>
-      <c r="N9" s="12">
-        <v>2</v>
-      </c>
-      <c r="O9" s="12">
-        <v>2</v>
-      </c>
-      <c r="P9" s="12">
-        <v>2</v>
-      </c>
-      <c r="S9" s="12" t="s">
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11">
+        <v>2</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2</v>
+      </c>
+      <c r="O9" s="11">
+        <v>2</v>
+      </c>
+      <c r="P9" s="11">
+        <v>2</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2275,118 +2266,118 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+    <row r="27" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>11</v>
       </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="5">
         <v>10</v>
       </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="17">
-        <v>2</v>
-      </c>
-      <c r="J27" s="17">
-        <v>2</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2</v>
-      </c>
-      <c r="L27" s="17">
-        <v>1</v>
-      </c>
-      <c r="M27" s="17">
-        <v>2</v>
-      </c>
-      <c r="N27" s="17">
-        <v>2</v>
-      </c>
-      <c r="O27" s="17">
-        <v>3</v>
-      </c>
-      <c r="P27" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>2</v>
-      </c>
-      <c r="R27" s="17" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>2</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
+        <v>2</v>
+      </c>
+      <c r="N27" s="5">
+        <v>2</v>
+      </c>
+      <c r="O27" s="5">
+        <v>3</v>
+      </c>
+      <c r="P27" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>2</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="S27" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="S27" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>11</v>
       </c>
-      <c r="B28" s="17">
-        <v>1</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="5">
         <v>180</v>
       </c>
-      <c r="F28" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="17">
-        <v>1</v>
-      </c>
-      <c r="H28" s="17">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17">
-        <v>2</v>
-      </c>
-      <c r="J28" s="17">
-        <v>2</v>
-      </c>
-      <c r="K28" s="17">
-        <v>2</v>
-      </c>
-      <c r="L28" s="17">
-        <v>2</v>
-      </c>
-      <c r="M28" s="17">
-        <v>4</v>
-      </c>
-      <c r="N28" s="17">
-        <v>3</v>
-      </c>
-      <c r="O28" s="17">
-        <v>3</v>
-      </c>
-      <c r="P28" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>2</v>
-      </c>
-      <c r="S28" s="18" t="s">
+      <c r="F28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2</v>
+      </c>
+      <c r="M28" s="5">
+        <v>4</v>
+      </c>
+      <c r="N28" s="5">
+        <v>3</v>
+      </c>
+      <c r="O28" s="5">
+        <v>3</v>
+      </c>
+      <c r="P28" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>2</v>
+      </c>
+      <c r="S28" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2614,118 +2605,118 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="33" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>13</v>
       </c>
-      <c r="B33" s="17">
-        <v>2</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="5">
         <v>70</v>
       </c>
-      <c r="F33" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="17">
-        <v>2</v>
-      </c>
-      <c r="J33" s="17">
-        <v>2</v>
-      </c>
-      <c r="K33" s="17">
-        <v>4</v>
-      </c>
-      <c r="L33" s="17">
-        <v>3</v>
-      </c>
-      <c r="M33" s="17">
-        <v>5</v>
-      </c>
-      <c r="N33" s="17">
-        <v>3</v>
-      </c>
-      <c r="O33" s="17">
-        <v>5</v>
-      </c>
-      <c r="P33" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>3</v>
-      </c>
-      <c r="R33" s="17" t="s">
+      <c r="F33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2</v>
+      </c>
+      <c r="K33" s="5">
+        <v>4</v>
+      </c>
+      <c r="L33" s="5">
+        <v>3</v>
+      </c>
+      <c r="M33" s="5">
+        <v>5</v>
+      </c>
+      <c r="N33" s="5">
+        <v>3</v>
+      </c>
+      <c r="O33" s="5">
+        <v>5</v>
+      </c>
+      <c r="P33" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>3</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S33" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="S33" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>13</v>
       </c>
-      <c r="B34" s="17">
-        <v>2</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="5">
         <v>60</v>
       </c>
-      <c r="F34" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="17">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="17">
-        <v>3</v>
-      </c>
-      <c r="J34" s="17">
-        <v>2</v>
-      </c>
-      <c r="K34" s="17">
-        <v>2</v>
-      </c>
-      <c r="L34" s="17">
-        <v>2</v>
-      </c>
-      <c r="M34" s="17">
-        <v>3</v>
-      </c>
-      <c r="N34" s="17">
-        <v>2</v>
-      </c>
-      <c r="O34" s="17">
-        <v>2</v>
-      </c>
-      <c r="P34" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>3</v>
-      </c>
-      <c r="S34" s="18" t="s">
+      <c r="F34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2</v>
+      </c>
+      <c r="M34" s="5">
+        <v>3</v>
+      </c>
+      <c r="N34" s="5">
+        <v>2</v>
+      </c>
+      <c r="O34" s="5">
+        <v>2</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>3</v>
+      </c>
+      <c r="S34" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2739,16 +2730,103 @@
       <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="D35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>3</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>13</v>
       </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="10">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>39</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="10">
+        <v>10</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4246,233 +4324,233 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+    <row r="63" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>27</v>
       </c>
-      <c r="B63" s="17">
-        <v>3</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="1">
         <v>10</v>
       </c>
-      <c r="F63" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G63" s="17">
-        <v>1</v>
-      </c>
-      <c r="H63" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I63" s="17">
-        <v>2</v>
-      </c>
-      <c r="J63" s="17">
-        <v>1</v>
-      </c>
-      <c r="K63" s="17">
-        <v>2</v>
-      </c>
-      <c r="L63" s="17">
-        <v>1</v>
-      </c>
-      <c r="M63" s="17">
-        <v>1</v>
-      </c>
-      <c r="N63" s="17">
-        <v>1</v>
-      </c>
-      <c r="O63" s="17">
-        <v>1</v>
-      </c>
-      <c r="P63" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="17">
-        <v>3</v>
-      </c>
-      <c r="R63" s="17" t="s">
+      <c r="F63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>3</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S63" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="S63" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>27</v>
       </c>
-      <c r="B64" s="17">
-        <v>3</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="1">
         <v>10</v>
       </c>
-      <c r="F64" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G64" s="17">
-        <v>2</v>
-      </c>
-      <c r="H64" s="17">
-        <v>1</v>
-      </c>
-      <c r="I64" s="17">
-        <v>2</v>
-      </c>
-      <c r="J64" s="17">
-        <v>1</v>
-      </c>
-      <c r="K64" s="17">
-        <v>3</v>
-      </c>
-      <c r="L64" s="17">
-        <v>1</v>
-      </c>
-      <c r="M64" s="17">
-        <v>3</v>
-      </c>
-      <c r="N64" s="17">
-        <v>2</v>
-      </c>
-      <c r="O64" s="17">
-        <v>2</v>
-      </c>
-      <c r="P64" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="17">
-        <v>3</v>
-      </c>
-      <c r="S64" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="F64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>3</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>3</v>
+      </c>
+      <c r="N64" s="1">
+        <v>2</v>
+      </c>
+      <c r="O64" s="1">
+        <v>2</v>
+      </c>
+      <c r="P64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>3</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>28</v>
       </c>
-      <c r="B65" s="17">
-        <v>3</v>
-      </c>
-      <c r="C65" s="17" t="s">
+      <c r="B65" s="5">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="5">
         <v>90</v>
       </c>
-      <c r="F65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="17">
-        <v>1</v>
-      </c>
-      <c r="J65" s="17">
-        <v>1</v>
-      </c>
-      <c r="K65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="L65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="M65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="N65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="O65" s="17">
-        <v>0</v>
-      </c>
-      <c r="P65" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="17">
-        <v>3</v>
-      </c>
-      <c r="R65" s="17" t="s">
+      <c r="F65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>3</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="S65" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="S65" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>28</v>
       </c>
-      <c r="B66" s="17">
-        <v>3</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="B66" s="5">
+        <v>3</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="5">
         <v>10</v>
       </c>
-      <c r="F66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
-      <c r="H66" s="17">
-        <v>1</v>
-      </c>
-      <c r="I66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K66" s="17">
-        <v>1</v>
-      </c>
-      <c r="L66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="M66" s="17">
-        <v>1</v>
-      </c>
-      <c r="N66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="O66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="P66" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="Q66" s="17">
-        <v>3</v>
-      </c>
-      <c r="S66" s="18" t="s">
+      <c r="F66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="5">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M66" s="5">
+        <v>1</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>3</v>
+      </c>
+      <c r="S66" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4532,56 +4610,56 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
+    <row r="68" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>28</v>
       </c>
-      <c r="B68" s="11">
-        <v>3</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="1">
         <v>10</v>
       </c>
-      <c r="F68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="J68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K68" s="11">
-        <v>1</v>
-      </c>
-      <c r="L68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="M68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="N68" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="O68" s="11">
-        <v>1</v>
-      </c>
-      <c r="P68" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="11">
+      <c r="F68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1">
         <v>4</v>
       </c>
     </row>
@@ -4868,115 +4946,115 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+    <row r="74" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
         <v>31</v>
       </c>
-      <c r="B74" s="14">
-        <v>3</v>
-      </c>
-      <c r="C74" s="14" t="s">
+      <c r="B74" s="13">
+        <v>3</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="13">
         <v>60</v>
       </c>
-      <c r="F74" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="G74" s="14">
-        <v>1</v>
-      </c>
-      <c r="H74" s="14">
-        <v>1</v>
-      </c>
-      <c r="I74" s="14">
-        <v>2</v>
-      </c>
-      <c r="J74" s="14">
-        <v>2</v>
-      </c>
-      <c r="K74" s="14">
-        <v>3</v>
-      </c>
-      <c r="L74" s="14">
-        <v>3</v>
-      </c>
-      <c r="M74" s="14">
-        <v>4</v>
-      </c>
-      <c r="N74" s="14">
-        <v>4</v>
-      </c>
-      <c r="O74" s="14">
-        <v>4</v>
-      </c>
-      <c r="P74" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q74" s="14">
-        <v>4</v>
-      </c>
-      <c r="S74" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+      <c r="F74" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="13">
+        <v>1</v>
+      </c>
+      <c r="H74" s="13">
+        <v>1</v>
+      </c>
+      <c r="I74" s="13">
+        <v>2</v>
+      </c>
+      <c r="J74" s="13">
+        <v>2</v>
+      </c>
+      <c r="K74" s="13">
+        <v>3</v>
+      </c>
+      <c r="L74" s="13">
+        <v>3</v>
+      </c>
+      <c r="M74" s="13">
+        <v>4</v>
+      </c>
+      <c r="N74" s="13">
+        <v>4</v>
+      </c>
+      <c r="O74" s="13">
+        <v>4</v>
+      </c>
+      <c r="P74" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>4</v>
+      </c>
+      <c r="S74" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
         <v>31</v>
       </c>
-      <c r="B75" s="14">
-        <v>3</v>
-      </c>
-      <c r="C75" s="14" t="s">
+      <c r="B75" s="13">
+        <v>3</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="13">
         <v>150</v>
       </c>
-      <c r="F75" s="14">
-        <v>1</v>
-      </c>
-      <c r="G75" s="14">
-        <v>2</v>
-      </c>
-      <c r="H75" s="14">
-        <v>2</v>
-      </c>
-      <c r="I75" s="14">
-        <v>3</v>
-      </c>
-      <c r="J75" s="14">
-        <v>3</v>
-      </c>
-      <c r="K75" s="14">
-        <v>3</v>
-      </c>
-      <c r="L75" s="14">
-        <v>3</v>
-      </c>
-      <c r="M75" s="14">
-        <v>3</v>
-      </c>
-      <c r="N75" s="14">
-        <v>3</v>
-      </c>
-      <c r="O75" s="14">
-        <v>4</v>
-      </c>
-      <c r="P75" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q75" s="14">
-        <v>4</v>
-      </c>
-      <c r="S75" s="16" t="s">
+      <c r="F75" s="13">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13">
+        <v>2</v>
+      </c>
+      <c r="H75" s="13">
+        <v>2</v>
+      </c>
+      <c r="I75" s="13">
+        <v>3</v>
+      </c>
+      <c r="J75" s="13">
+        <v>3</v>
+      </c>
+      <c r="K75" s="13">
+        <v>3</v>
+      </c>
+      <c r="L75" s="13">
+        <v>3</v>
+      </c>
+      <c r="M75" s="13">
+        <v>3</v>
+      </c>
+      <c r="N75" s="13">
+        <v>3</v>
+      </c>
+      <c r="O75" s="13">
+        <v>4</v>
+      </c>
+      <c r="P75" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>4</v>
+      </c>
+      <c r="S75" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5839,8 +5917,10 @@
     <hyperlink ref="D30" r:id="rId82" xr:uid="{024BE19B-C582-4A28-B46E-1A489C78D8AB}"/>
     <hyperlink ref="D67" r:id="rId83" xr:uid="{45C3A300-30FB-4CB2-A593-C2C1F22EEA9D}"/>
     <hyperlink ref="D68" r:id="rId84" xr:uid="{DDE6A27F-A389-4D1D-8839-2B54D968A5E9}"/>
+    <hyperlink ref="D35" r:id="rId85" xr:uid="{CB55A363-C33A-462C-805E-00E83FB01D0D}"/>
+    <hyperlink ref="D36" r:id="rId86" xr:uid="{B0DCCE9C-D60E-4E18-B848-99D76C6DED1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>